--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Adroit Infotech Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Adroit Infotech Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
@@ -615,7 +615,7 @@
         <v>12.85</v>
       </c>
       <c r="G2">
-        <v>3.367142857142858</v>
+        <v>3.37</v>
       </c>
       <c r="H2">
         <v>0.8100000000000001</v>
@@ -624,7 +624,7 @@
         <v>3.27</v>
       </c>
       <c r="J2">
-        <v>0.363</v>
+        <v>0.36</v>
       </c>
       <c r="K2">
         <v>4.08</v>
@@ -639,10 +639,10 @@
         <v>3.57</v>
       </c>
       <c r="O2">
-        <v>4.205714285714286</v>
+        <v>4.21</v>
       </c>
       <c r="P2">
-        <v>0.3621052631578947</v>
+        <v>0.36</v>
       </c>
       <c r="Q2">
         <v>0.03</v>
@@ -663,7 +663,7 @@
         <v>4.96</v>
       </c>
       <c r="W2">
-        <v>2.786</v>
+        <v>2.79</v>
       </c>
       <c r="X2">
         <v>13.34</v>
@@ -672,7 +672,7 @@
         <v>16.93</v>
       </c>
       <c r="Z2">
-        <v>3.442</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -695,7 +695,7 @@
         <v>19.96</v>
       </c>
       <c r="G3">
-        <v>3.367142857142858</v>
+        <v>3.37</v>
       </c>
       <c r="H3">
         <v>0.86</v>
@@ -704,7 +704,7 @@
         <v>7.15</v>
       </c>
       <c r="J3">
-        <v>0.363</v>
+        <v>0.36</v>
       </c>
       <c r="K3">
         <v>8.01</v>
@@ -743,7 +743,7 @@
         <v>0.97</v>
       </c>
       <c r="W3">
-        <v>2.786</v>
+        <v>2.79</v>
       </c>
       <c r="X3">
         <v>16.62</v>
@@ -784,7 +784,7 @@
         <v>11.04</v>
       </c>
       <c r="J4">
-        <v>0.363</v>
+        <v>0.36</v>
       </c>
       <c r="K4">
         <v>11.24</v>
@@ -823,7 +823,7 @@
         <v>5.22</v>
       </c>
       <c r="W4">
-        <v>2.786</v>
+        <v>2.79</v>
       </c>
       <c r="X4">
         <v>20.24</v>
@@ -858,13 +858,13 @@
         <v>0.09</v>
       </c>
       <c r="H5">
-        <v>0.4744444444444445</v>
+        <v>0.47</v>
       </c>
       <c r="I5">
         <v>6.61</v>
       </c>
       <c r="J5">
-        <v>0.363</v>
+        <v>0.36</v>
       </c>
       <c r="K5">
         <v>6.61</v>
@@ -903,7 +903,7 @@
         <v>4.82</v>
       </c>
       <c r="W5">
-        <v>2.786</v>
+        <v>2.79</v>
       </c>
       <c r="X5">
         <v>15.4</v>
@@ -944,7 +944,7 @@
         <v>8.92</v>
       </c>
       <c r="J6">
-        <v>0.363</v>
+        <v>0.36</v>
       </c>
       <c r="K6">
         <v>9.08</v>
@@ -983,7 +983,7 @@
         <v>1.99</v>
       </c>
       <c r="W6">
-        <v>2.786</v>
+        <v>2.79</v>
       </c>
       <c r="X6">
         <v>17.98</v>
@@ -1015,7 +1015,7 @@
         <v>13.64</v>
       </c>
       <c r="G7">
-        <v>3.367142857142858</v>
+        <v>3.37</v>
       </c>
       <c r="H7">
         <v>0.16</v>
@@ -1024,7 +1024,7 @@
         <v>9.880000000000001</v>
       </c>
       <c r="J7">
-        <v>0.363</v>
+        <v>0.36</v>
       </c>
       <c r="K7">
         <v>10.04</v>
@@ -1101,7 +1101,7 @@
         <v>0.16</v>
       </c>
       <c r="I8">
-        <v>5.166666666666667</v>
+        <v>5.17</v>
       </c>
       <c r="J8">
         <v>0.01</v>
@@ -1125,7 +1125,7 @@
         <v>0.38</v>
       </c>
       <c r="Q8">
-        <v>1.021538461538462</v>
+        <v>1.02</v>
       </c>
       <c r="R8">
         <v>7.77</v>
@@ -1140,10 +1140,10 @@
         <v>0.05</v>
       </c>
       <c r="V8">
-        <v>1.858333333333333</v>
+        <v>1.86</v>
       </c>
       <c r="W8">
-        <v>2.786</v>
+        <v>2.79</v>
       </c>
       <c r="X8">
         <v>15.98</v>
@@ -1181,10 +1181,10 @@
         <v>0.16</v>
       </c>
       <c r="I9">
-        <v>5.166666666666667</v>
+        <v>5.17</v>
       </c>
       <c r="J9">
-        <v>0.363</v>
+        <v>0.36</v>
       </c>
       <c r="K9">
         <v>0.16</v>
@@ -1199,13 +1199,13 @@
         <v>2.46</v>
       </c>
       <c r="O9">
-        <v>4.205714285714286</v>
+        <v>4.21</v>
       </c>
       <c r="P9">
         <v>0.38</v>
       </c>
       <c r="Q9">
-        <v>1.021538461538462</v>
+        <v>1.02</v>
       </c>
       <c r="R9">
         <v>4.61</v>
@@ -1220,10 +1220,10 @@
         <v>0.62</v>
       </c>
       <c r="V9">
-        <v>1.858333333333333</v>
+        <v>1.86</v>
       </c>
       <c r="W9">
-        <v>2.786</v>
+        <v>2.79</v>
       </c>
       <c r="X9">
         <v>11.92</v>
@@ -1232,7 +1232,7 @@
         <v>16.53</v>
       </c>
       <c r="Z9">
-        <v>3.442</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1255,7 +1255,7 @@
         <v>16.1</v>
       </c>
       <c r="G10">
-        <v>3.367142857142858</v>
+        <v>3.37</v>
       </c>
       <c r="H10">
         <v>0.14</v>
@@ -1264,7 +1264,7 @@
         <v>0.09</v>
       </c>
       <c r="J10">
-        <v>0.363</v>
+        <v>0.36</v>
       </c>
       <c r="K10">
         <v>0.23</v>
@@ -1279,13 +1279,13 @@
         <v>2.33</v>
       </c>
       <c r="O10">
-        <v>4.205714285714286</v>
+        <v>4.21</v>
       </c>
       <c r="P10">
         <v>0.33</v>
       </c>
       <c r="Q10">
-        <v>1.021538461538462</v>
+        <v>1.02</v>
       </c>
       <c r="R10">
         <v>2.66</v>
@@ -1303,7 +1303,7 @@
         <v>1.95</v>
       </c>
       <c r="W10">
-        <v>2.786</v>
+        <v>2.79</v>
       </c>
       <c r="X10">
         <v>13.66</v>
@@ -1312,7 +1312,7 @@
         <v>16.33</v>
       </c>
       <c r="Z10">
-        <v>3.442</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -1335,7 +1335,7 @@
         <v>15.95</v>
       </c>
       <c r="G11">
-        <v>3.367142857142858</v>
+        <v>3.37</v>
       </c>
       <c r="H11">
         <v>0.14</v>
@@ -1344,7 +1344,7 @@
         <v>0.09</v>
       </c>
       <c r="J11">
-        <v>0.363</v>
+        <v>0.36</v>
       </c>
       <c r="K11">
         <v>0.23</v>
@@ -1359,13 +1359,13 @@
         <v>2.23</v>
       </c>
       <c r="O11">
-        <v>4.205714285714286</v>
+        <v>4.21</v>
       </c>
       <c r="P11">
         <v>0.33</v>
       </c>
       <c r="Q11">
-        <v>1.021538461538462</v>
+        <v>1.02</v>
       </c>
       <c r="R11">
         <v>2.57</v>
@@ -1383,7 +1383,7 @@
         <v>1.95</v>
       </c>
       <c r="W11">
-        <v>2.786</v>
+        <v>2.79</v>
       </c>
       <c r="X11">
         <v>13.62</v>
@@ -1392,7 +1392,7 @@
         <v>16.18</v>
       </c>
       <c r="Z11">
-        <v>3.442</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -1439,13 +1439,13 @@
         <v>2.94</v>
       </c>
       <c r="O12">
-        <v>4.205714285714286</v>
+        <v>4.21</v>
       </c>
       <c r="P12">
         <v>0.13</v>
       </c>
       <c r="Q12">
-        <v>1.021538461538462</v>
+        <v>1.02</v>
       </c>
       <c r="R12">
         <v>3.14</v>
@@ -1463,7 +1463,7 @@
         <v>2.13</v>
       </c>
       <c r="W12">
-        <v>2.786</v>
+        <v>2.79</v>
       </c>
       <c r="X12">
         <v>16.41</v>
@@ -1472,7 +1472,7 @@
         <v>19.56</v>
       </c>
       <c r="Z12">
-        <v>3.442</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -1498,7 +1498,7 @@
         <v>0.01</v>
       </c>
       <c r="H13">
-        <v>0.4744444444444445</v>
+        <v>0.47</v>
       </c>
       <c r="I13">
         <v>0.32</v>
@@ -1525,13 +1525,13 @@
         <v>0.13</v>
       </c>
       <c r="Q13">
-        <v>1.021538461538462</v>
+        <v>1.02</v>
       </c>
       <c r="R13">
         <v>11.14</v>
       </c>
       <c r="S13">
-        <v>10.85727272727273</v>
+        <v>10.86</v>
       </c>
       <c r="T13">
         <v>6.17</v>
@@ -1575,7 +1575,7 @@
         <v>22.41</v>
       </c>
       <c r="G14">
-        <v>3.367142857142858</v>
+        <v>3.37</v>
       </c>
       <c r="H14">
         <v>0.25</v>
@@ -1611,7 +1611,7 @@
         <v>3.43</v>
       </c>
       <c r="S14">
-        <v>10.85727272727273</v>
+        <v>10.86</v>
       </c>
       <c r="T14">
         <v>10.65</v>
@@ -1691,7 +1691,7 @@
         <v>5.04</v>
       </c>
       <c r="S15">
-        <v>10.85727272727273</v>
+        <v>10.86</v>
       </c>
       <c r="T15">
         <v>15.89</v>
@@ -1771,7 +1771,7 @@
         <v>13.03</v>
       </c>
       <c r="S16">
-        <v>10.85727272727273</v>
+        <v>10.86</v>
       </c>
       <c r="T16">
         <v>13.77</v>
@@ -1851,7 +1851,7 @@
         <v>12.45</v>
       </c>
       <c r="S17">
-        <v>10.85727272727273</v>
+        <v>10.86</v>
       </c>
       <c r="T17">
         <v>3.13</v>
@@ -1872,7 +1872,7 @@
         <v>17.4</v>
       </c>
       <c r="Z17">
-        <v>3.442</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -1925,13 +1925,13 @@
         <v>0.34</v>
       </c>
       <c r="Q18">
-        <v>1.021538461538462</v>
+        <v>1.02</v>
       </c>
       <c r="R18">
         <v>9.35</v>
       </c>
       <c r="S18">
-        <v>10.85727272727273</v>
+        <v>10.86</v>
       </c>
       <c r="T18">
         <v>4.21</v>
@@ -1952,7 +1952,7 @@
         <v>14.59</v>
       </c>
       <c r="Z18">
-        <v>3.442</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -1984,7 +1984,7 @@
         <v>2.94</v>
       </c>
       <c r="J19">
-        <v>0.363</v>
+        <v>0.36</v>
       </c>
       <c r="K19">
         <v>4.62</v>
@@ -1999,7 +1999,7 @@
         <v>8.93</v>
       </c>
       <c r="O19">
-        <v>4.205714285714286</v>
+        <v>4.21</v>
       </c>
       <c r="P19">
         <v>0.3</v>
@@ -2011,7 +2011,7 @@
         <v>10.81</v>
       </c>
       <c r="S19">
-        <v>10.85727272727273</v>
+        <v>10.86</v>
       </c>
       <c r="T19">
         <v>2.95</v>
@@ -2032,7 +2032,7 @@
         <v>17.51</v>
       </c>
       <c r="Z19">
-        <v>3.442</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -2091,7 +2091,7 @@
         <v>21.33</v>
       </c>
       <c r="S20">
-        <v>10.85727272727273</v>
+        <v>10.86</v>
       </c>
       <c r="T20">
         <v>5.98</v>
@@ -2112,7 +2112,7 @@
         <v>30.65</v>
       </c>
       <c r="Z20">
-        <v>3.442</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -2171,7 +2171,7 @@
         <v>31.02</v>
       </c>
       <c r="S21">
-        <v>10.85727272727273</v>
+        <v>10.86</v>
       </c>
       <c r="T21">
         <v>7.39</v>
@@ -2192,7 +2192,7 @@
         <v>41.08</v>
       </c>
       <c r="Z21">
-        <v>3.442</v>
+        <v>3.44</v>
       </c>
     </row>
   </sheetData>
